--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2214777036137586</v>
+        <v>0.23034059476502</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002951470853417276</v>
+        <v>0.06618900775928385</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03572661276427354</v>
+        <v>0.005412443187603469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03406424975455838</v>
+        <v>0.0169060544251252</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09078160316452685</v>
+        <v>0.06889058647281115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03314759967754326</v>
+        <v>0.009940139651235065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07156254584119526</v>
+        <v>0.0767282745924486</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0189142904368358</v>
+        <v>0.026646925633012</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003888267056669862</v>
+        <v>0.003674448074299451</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04893178170362282</v>
+        <v>0.07685195989412058</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1024293763323918</v>
+        <v>0.07503269786108029</v>
       </c>
       <c r="P2" t="n">
-        <v>0.007326642221931552</v>
+        <v>0.08046043805328375</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05362725441669913</v>
+        <v>0.03243995751831705</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08836097567158405</v>
+        <v>0.08468101156120825</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09945873294928617</v>
+        <v>0.0714100080095065</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003224659919469861</v>
+        <v>0.03825904299266644</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009922932692950703</v>
+        <v>0.02608945871434182</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005287563917799699</v>
+        <v>0.004275504747621844</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03714986975904444</v>
+        <v>0.003988091028668862</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02193599240063844</v>
+        <v>0.05149808898448469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0019106641082536</v>
+        <v>0.01276809900502706</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04360071682410279</v>
+        <v>0.04928114473894846</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09686805619647694</v>
+        <v>0.1014741856970311</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.09242758168773063</v>
+        <v>0.01710243139787459</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1693507248236931</v>
+        <v>0.1233454777090742</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5921619666364589</v>
+        <v>0.6903373052769319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04248264271229617</v>
+        <v>0.0009149649363257805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01331929558560426</v>
+        <v>0.0592514685481077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01662431707798246</v>
+        <v>0.09658632347140519</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01956477519235106</v>
+        <v>0.02421946789837897</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07709342693416574</v>
+        <v>0.009369678275956554</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04056550867455493</v>
+        <v>0.08559152659937067</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02840489373557825</v>
+        <v>0.007695020819021224</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09923824932290048</v>
+        <v>0.1191999778075245</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0516355774838554</v>
+        <v>0.01191520755167471</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07940800161708879</v>
+        <v>0.07562260029055454</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03333082698254487</v>
+        <v>0.08496806843863416</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07032064831748761</v>
+        <v>0.01417930228574804</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06164689098330276</v>
+        <v>0.01475013487576222</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07615791034884632</v>
+        <v>0.02884470186437457</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01104319088414836</v>
+        <v>0.02420850965671652</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009834769568659824</v>
+        <v>0.04275229444789966</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002252114764237868</v>
+        <v>0.008360154351929341</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05260134816658664</v>
+        <v>0.06783534804907375</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04987735590598687</v>
+        <v>0.0243677481641717</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01444836223189919</v>
+        <v>0.03980580580310916</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0003539473750540171</v>
+        <v>0.01247168716778138</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07300317795026597</v>
+        <v>0.1119068306332476</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07679276818460233</v>
+        <v>0.035183178063232</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1382978391135972</v>
+        <v>0.1164891597298832</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2964749678697764</v>
+        <v>0.2952773283172993</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05118799092017529</v>
+        <v>0.005136448869195165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005183178695847281</v>
+        <v>0.006829735543504564</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04028944344500431</v>
+        <v>0.08255797509010897</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03640064676425737</v>
+        <v>0.04541970825382887</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02060378790090858</v>
+        <v>0.03252817113045939</v>
       </c>
       <c r="K4" t="n">
-        <v>0.075376876502026</v>
+        <v>0.001694606496821825</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04193042776285612</v>
+        <v>0.0293263750276181</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002234124790947179</v>
+        <v>0.01458642018663585</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03633528985931451</v>
+        <v>0.06420756513877339</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0004009173300238727</v>
+        <v>0.01376866270475648</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08648215557955247</v>
+        <v>0.07088157573335047</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07380812511430261</v>
+        <v>0.1076409700400805</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07856303489770815</v>
+        <v>0.06352039340098017</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006583636829095517</v>
+        <v>0.03517920681760244</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02321236146741829</v>
+        <v>0.01939079045210136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09920941696539855</v>
+        <v>0.006039231035283876</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02762568613357614</v>
+        <v>0.02143064351084038</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02687373224120226</v>
+        <v>0.01014526197508011</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09190192557145109</v>
+        <v>0.05781290947189017</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05344536042384185</v>
+        <v>0.08613060026424187</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0721830868666191</v>
+        <v>0.1041272899132751</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.009186873356292431</v>
+        <v>0.0124887911281135</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04098192058218097</v>
+        <v>0.1091566678154573</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.58028238513735</v>
+        <v>-0.5882086705124271</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.063604156239894</v>
+        <v>0.9523805463193674</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05844274557095508</v>
+        <v>0.01752126154660766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002828967531460887</v>
+        <v>0.02010748711123161</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06045987023019382</v>
+        <v>0.006662251382585105</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1000123645247037</v>
+        <v>0.07844330221971497</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01549689563002036</v>
+        <v>0.01050162608989584</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03446839231502438</v>
+        <v>0.002088577949464175</v>
       </c>
       <c r="L5" t="n">
-        <v>0.089843217809778</v>
+        <v>0.05438567361669726</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009399866528120686</v>
+        <v>0.00120072603923157</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0366176592079146</v>
+        <v>0.08275595616974341</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09905075418965144</v>
+        <v>0.09088257833833961</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05524733603058589</v>
+        <v>0.08541976221060661</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09401064241077463</v>
+        <v>0.08279560141849598</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03493798491862335</v>
+        <v>0.03640515546885954</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005312314630364821</v>
+        <v>0.02487249264006213</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01709773447700668</v>
+        <v>0.03487701706001161</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02425948632449025</v>
+        <v>0.005126264926151021</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01123545269652178</v>
+        <v>0.01497466827770286</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09623894113437637</v>
+        <v>0.07661695271396084</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01593845531404266</v>
+        <v>0.06355331307793645</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01478062553272438</v>
+        <v>0.005968924098935753</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06789895272290492</v>
+        <v>0.0567464263789883</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004514526005990451</v>
+        <v>0.09281138526896932</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05190681426377104</v>
+        <v>0.05528259599580838</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5996994476868939</v>
+        <v>-0.6085178130136797</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2475265388337543</v>
+        <v>0.2342006722558039</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03902309580579632</v>
+        <v>0.05350800044716054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0169055889790915</v>
+        <v>0.05232731546399621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02034058879957031</v>
+        <v>0.01390722317364404</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0595859960892623</v>
+        <v>0.01897801955000919</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04092567220917202</v>
+        <v>0.03029777726704014</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01052539787903753</v>
+        <v>0.02923496585570133</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06493563928326077</v>
+        <v>0.008265342843530666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002520086170654487</v>
+        <v>0.03217472719246962</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01457045627832056</v>
+        <v>0.002535640473554244</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06048651725481121</v>
+        <v>0.06207820519245354</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04662322356143189</v>
+        <v>0.07068816086719078</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04181532136773394</v>
+        <v>0.01552419229893521</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06379188081481969</v>
+        <v>0.1116895579719289</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06624766021705866</v>
+        <v>0.08891926589248172</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003784993714831225</v>
+        <v>0.006783862771853691</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06694724864467982</v>
+        <v>0.0218232191023931</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01438810898851407</v>
+        <v>0.00957518400557868</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08016504015300345</v>
+        <v>0.07364680437977764</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02901996091424324</v>
+        <v>0.06704874032378789</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04291111485603313</v>
+        <v>0.04193772334956763</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06643856229111408</v>
+        <v>0.08267051356512095</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06974150857471212</v>
+        <v>0.03033229395636357</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0783063371528477</v>
+        <v>0.0760532640554606</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2197314614469976</v>
+        <v>0.1725906262255135</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6225669146992403</v>
+        <v>0.7677205203944354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0108893764830096</v>
+        <v>0.01254568726442473</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01431507768042178</v>
+        <v>0.01080958848917068</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09160838815400316</v>
+        <v>0.04594996799043401</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04000125232223638</v>
+        <v>0.09757937053650288</v>
       </c>
       <c r="J7" t="n">
-        <v>7.622833290319191e-05</v>
+        <v>0.02676284497136639</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007230932949394001</v>
+        <v>0.0436407812014307</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06403063832474654</v>
+        <v>0.01137682565968583</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0524704476758885</v>
+        <v>0.09797808536051451</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09279651032490119</v>
+        <v>0.08866041126811181</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05413915212117396</v>
+        <v>0.005622776882580884</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02078876418884659</v>
+        <v>0.00880831546573624</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.006264773046009087</v>
+        <v>0.06223334419511688</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04871141706287954</v>
+        <v>0.0005857625510310641</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03110351866865277</v>
+        <v>0.01717437273103462</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1074610341234791</v>
+        <v>0.1104758151866002</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001828854939355433</v>
+        <v>0.003600029339961468</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08538354598091152</v>
+        <v>0.1078278333751185</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05527359487057752</v>
+        <v>0.0343641385781419</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00990341275298955</v>
+        <v>0.04468394585482189</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01674148463865132</v>
+        <v>0.0009575914836549404</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08255622099244948</v>
+        <v>0.0850602103624216</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01437743258351339</v>
+        <v>0.01308817647305027</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09855578143746091</v>
+        <v>0.07021412477908785</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3879635435619002</v>
+        <v>0.3937975325801231</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2828210240483721</v>
+        <v>0.2966884821513018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03262156139295146</v>
+        <v>0.01073443669756946</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08482697724978178</v>
+        <v>0.08003442030245295</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01245339736378537</v>
+        <v>0.03595342910901308</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0978307587339331</v>
+        <v>0.04665949587907076</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03204943000320796</v>
+        <v>0.08208115865965293</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0009459880910826385</v>
+        <v>0.04101329316421707</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02369892889701144</v>
+        <v>0.07703268024202854</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04571917767301917</v>
+        <v>0.08698640199981951</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0168244459089241</v>
+        <v>0.009167905889565542</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0143134395483847</v>
+        <v>0.02893659629261917</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07033376138848159</v>
+        <v>0.005625140274571934</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005806359011991408</v>
+        <v>0.01176583419769075</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1146222146278366</v>
+        <v>0.08435862683093685</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07765859770531648</v>
+        <v>0.07910462844680186</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03103514139005036</v>
+        <v>0.0111192653558942</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004248314748017934</v>
+        <v>0.002676041535118136</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01856898769575692</v>
+        <v>0.002299346704441439</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07515460659412307</v>
+        <v>0.07438208037636257</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08047978982794421</v>
+        <v>0.05535282610882915</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03402933845698321</v>
+        <v>0.04121084561566248</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01324910397037744</v>
+        <v>0.06985890428496284</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04003411802604677</v>
+        <v>0.002676865715767251</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.07349556169499219</v>
+        <v>0.06096977631695149</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1198170173450243</v>
+        <v>0.1593147625250467</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.380945134486566</v>
+        <v>0.5091572181951762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001836960592592229</v>
+        <v>0.0007916091975068407</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06936090112407031</v>
+        <v>0.0850555581123163</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04830583030286799</v>
+        <v>0.0682390804383405</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02554213825363316</v>
+        <v>0.001458188092462956</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04654438708347346</v>
+        <v>0.07011960176175941</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00343241969897969</v>
+        <v>0.01504614515298212</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08113680665856109</v>
+        <v>0.08403783716462568</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01743492026165891</v>
+        <v>0.06106126822526641</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06457677031822899</v>
+        <v>0.07425196592252414</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07104908802744848</v>
+        <v>0.03233977857616964</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04030526430220672</v>
+        <v>0.009898777772678252</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02689194027169573</v>
+        <v>0.03092103401558646</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05839597576744558</v>
+        <v>0.09002141317167818</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05965261943468298</v>
+        <v>0.04402964006263074</v>
       </c>
       <c r="T9" t="n">
-        <v>0.005402992100485354</v>
+        <v>0.02075540373274701</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002455594905322342</v>
+        <v>0.009861853044532191</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07059179498407385</v>
+        <v>0.09263857875016672</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06562440003547139</v>
+        <v>0.000423443935870883</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04006550775229655</v>
+        <v>0.01627453131660232</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04936742109234062</v>
+        <v>0.01020062368822736</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.06839561171867191</v>
+        <v>0.007660531202225622</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.002049560838155268</v>
+        <v>0.07252093190537064</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0815810944756374</v>
+        <v>0.1023922047577297</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1473504846659191</v>
+        <v>0.230044738459763</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4810616024547436</v>
+        <v>0.4816263013705576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003488403476790074</v>
+        <v>0.03197885266113808</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08289439268428002</v>
+        <v>0.06849931091893496</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006684097181561975</v>
+        <v>0.019091765263606</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0190721745233168</v>
+        <v>0.0277972012332226</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01171114872393868</v>
+        <v>0.001563736181459218</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03188227011103592</v>
+        <v>0.04284277624735353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003084438435803356</v>
+        <v>0.01156334185126381</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05880963777500129</v>
+        <v>0.09731787456752564</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04973569267735741</v>
+        <v>0.001697391830960431</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08558731532431292</v>
+        <v>0.02337563371839359</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02896462070270357</v>
+        <v>0.07303913116292352</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05723366655157233</v>
+        <v>0.08614241435853524</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06903076758691072</v>
+        <v>0.02023527572773157</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07942234958635322</v>
+        <v>0.03853698107024685</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06392778741861119</v>
+        <v>0.04286758214557029</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06452873584883502</v>
+        <v>0.004788912969875674</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01893560089769467</v>
+        <v>0.003516458103067927</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01047529099955329</v>
+        <v>0.09298103268772001</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06773947253963551</v>
+        <v>0.07644841735367626</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03712992054763482</v>
+        <v>0.03231260473275448</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0654148147285403</v>
+        <v>0.08212667595421419</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0778941828889779</v>
+        <v>0.1054656804401512</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.009129213381802176</v>
+        <v>0.015810948819675</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1365902880213924</v>
+        <v>-0.129448245585633</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.313292562516843</v>
+        <v>1.141486655854993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09645277323610674</v>
+        <v>0.0171038982513851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09901091126997714</v>
+        <v>0.05403832202956799</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1004383279167452</v>
+        <v>0.02530582166863315</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001183292759380889</v>
+        <v>0.06196537271293188</v>
       </c>
       <c r="J11" t="n">
-        <v>7.336595900640046e-06</v>
+        <v>7.890020596850574e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009596881863305859</v>
+        <v>0.07869189153099856</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005566227043024264</v>
+        <v>0.04444841737792603</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08761796997423719</v>
+        <v>0.01593281020657364</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08797835539835457</v>
+        <v>0.05659185431692996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03395700755984481</v>
+        <v>0.07416693431511424</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01281149375968143</v>
+        <v>0.04882105216316909</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007131522807741626</v>
+        <v>0.03476201089571051</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04108984700869147</v>
+        <v>0.0469953498826629</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07101784235651935</v>
+        <v>0.08279835170813346</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0262618456945625</v>
+        <v>0.06187639538906865</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05822669097489673</v>
+        <v>0.006342477874578646</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007765857828336256</v>
+        <v>0.02746184507847381</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06725813893810907</v>
+        <v>0.02709477916894381</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04035165890617059</v>
+        <v>0.04486540079975939</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03872127174729849</v>
+        <v>0.01027136348785363</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.009811619741256593</v>
+        <v>0.0363631284054127</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02347337296186377</v>
+        <v>0.07163193846339797</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.07426975365799476</v>
+        <v>0.07246269425217795</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1052284310589315</v>
+        <v>-0.1361811319077837</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1797884196973773</v>
+        <v>0.1778121508954514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01894800626005579</v>
+        <v>0.006936479098972027</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009307971968713837</v>
+        <v>0.01672567746133419</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005910842888428638</v>
+        <v>0.07829513679486444</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05104773877023822</v>
+        <v>0.02830807386434619</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007886275843026138</v>
+        <v>0.007441922410323054</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02255805203940359</v>
+        <v>0.001561181085451255</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007918549812311106</v>
+        <v>0.01949674107034924</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003953640165572266</v>
+        <v>0.01092123734826086</v>
       </c>
       <c r="N12" t="n">
-        <v>0.008706712851751132</v>
+        <v>0.05303083591896665</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04869675797285759</v>
+        <v>0.03573386208081771</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08851454799764673</v>
+        <v>0.06990620905028172</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.07633131873739582</v>
+        <v>0.06383096123784313</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06847369796394047</v>
+        <v>0.06564698813083678</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08187194621131084</v>
+        <v>0.07497182980235066</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05459901258309917</v>
+        <v>0.0382707179360092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06687768662392089</v>
+        <v>0.08640651486178208</v>
       </c>
       <c r="V12" t="n">
-        <v>0.006703788734727215</v>
+        <v>0.03477790283861697</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0543188527672876</v>
+        <v>0.08056951492711105</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0968119097402054</v>
+        <v>0.07670509716901873</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.00715778015881628</v>
+        <v>0.03445341338113191</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.07804407934559675</v>
+        <v>0.04538366125913806</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04627449255971108</v>
+        <v>0.05992710113750712</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.08908633800398334</v>
+        <v>0.01069894113468688</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1988219254682709</v>
+        <v>0.1651443927579213</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2775964571099362</v>
+        <v>0.2057581672721112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01067861991425193</v>
+        <v>0.007138150031475421</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004719502895131124</v>
+        <v>0.0007536819483153309</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003635154605302058</v>
+        <v>0.02063556233178795</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03224650507007527</v>
+        <v>0.08303718671408496</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1196454644390301</v>
+        <v>0.00218257589214888</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1107849832303505</v>
+        <v>0.08531629773536953</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04670829855500532</v>
+        <v>0.0543660250955292</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02863750957456596</v>
+        <v>0.01312411696879162</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002926007256357558</v>
+        <v>0.01090525499759687</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08718405318437121</v>
+        <v>0.1058465642033534</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07748592808320638</v>
+        <v>0.01374768950876019</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001520752957274105</v>
+        <v>0.003153885816585878</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03827046290296544</v>
+        <v>0.01508850650071251</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07184163456130151</v>
+        <v>0.1167342154576433</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01534060965336876</v>
+        <v>0.03791152992631244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09256959506294245</v>
+        <v>0.1174911724033222</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07192341728542825</v>
+        <v>0.001536195991658575</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09844246766027798</v>
+        <v>0.1406751494836689</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01498903632636232</v>
+        <v>0.02733763681206513</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01664044870314031</v>
+        <v>0.02934910140969987</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0259188230140812</v>
+        <v>0.08598753493473367</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02770023888200433</v>
+        <v>0.02750751698449326</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001904861832059466</v>
+        <v>0.0001744488518906507</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2343692992921737</v>
+        <v>0.2732445103411564</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2206168319942805</v>
+        <v>0.2427574077637232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05394639861110407</v>
+        <v>0.06467200588980174</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001531883629885907</v>
+        <v>0.05261474858358306</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04765409878634148</v>
+        <v>0.05955788036561496</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01942000996370209</v>
+        <v>0.03033100420575702</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08745839427705972</v>
+        <v>0.03988580888727494</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06505595478596825</v>
+        <v>0.007142215435083404</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07052246854900862</v>
+        <v>0.07859900149429666</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01362644364821434</v>
+        <v>0.06732847660319206</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04336373670084398</v>
+        <v>0.02307731814022126</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0360187514797892</v>
+        <v>0.03846793103307291</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09629947404640538</v>
+        <v>0.0248940834571943</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01764649414471603</v>
+        <v>0.00993426012964178</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06456727273213683</v>
+        <v>0.07072773157277749</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0725137764903391</v>
+        <v>0.06789714290194232</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02068251518261019</v>
+        <v>0.0440467944969849</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02545974683505001</v>
+        <v>0.001831012273967986</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08441249035584865</v>
+        <v>0.07411128004114106</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05542112146109646</v>
+        <v>0.05939607595807921</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00020734223192055</v>
+        <v>0.004918979089121992</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.007997736455254431</v>
+        <v>0.08277062779310344</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06678595224387171</v>
+        <v>0.08719308113801306</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04932316471640939</v>
+        <v>0.009839610098611897</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.47726724237063e-05</v>
+        <v>0.0007629304115224629</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2217962412808798</v>
+        <v>0.1670501791011007</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3200354337266781</v>
+        <v>0.2809568438276979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02524394229013848</v>
+        <v>0.1029752703914046</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04552395072607289</v>
+        <v>0.008220036263939816</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07599262572259534</v>
+        <v>0.004782043852202514</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08136696644446675</v>
+        <v>0.004564099388764102</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03376521424167502</v>
+        <v>0.1030434415780336</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08309015189052288</v>
+        <v>0.113397136566664</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04951907856201199</v>
+        <v>0.03575206995423406</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08608463841485939</v>
+        <v>0.02798789651099224</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08381718740607036</v>
+        <v>0.03790655910231356</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08517348953852498</v>
+        <v>0.02890139442492247</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02160642053817834</v>
+        <v>0.035390702270375</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01710784022585408</v>
+        <v>0.03207809730907088</v>
       </c>
       <c r="R15" t="n">
-        <v>0.007186789569664218</v>
+        <v>0.02890493029780524</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07068013744119718</v>
+        <v>0.06113923027367829</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07993440048663689</v>
+        <v>0.03484624061229234</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0745505142935418</v>
+        <v>0.01883763773819552</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0002381271652988947</v>
+        <v>0.05079592537357365</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0137009788741903</v>
+        <v>0.04302515506067536</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001653457992105364</v>
+        <v>0.004387854268501773</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03064931502751513</v>
+        <v>0.06582248997027455</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02662228128771492</v>
+        <v>0.05264288049100604</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.003604882369495661</v>
+        <v>0.1031710279395352</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002887609491669366</v>
+        <v>0.00142788036154504</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2381200714190401</v>
+        <v>0.21491546478028</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.244829578992818</v>
+        <v>0.2760836808641651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03496458806692228</v>
+        <v>0.0761374493654579</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05312155151243036</v>
+        <v>0.07563340486738208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08494700417564138</v>
+        <v>0.07048046626608911</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06835309014272352</v>
+        <v>0.07048702390836717</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002539390481508049</v>
+        <v>0.009825207538430509</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02246351293758618</v>
+        <v>0.01992180428794389</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0834061185056495</v>
+        <v>0.01855979143683257</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0927023966589253</v>
+        <v>0.07379797318002219</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01394510048946861</v>
+        <v>0.06367004358852929</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0009126451975244702</v>
+        <v>0.06757580050247693</v>
       </c>
       <c r="P16" t="n">
-        <v>0.007239561576282048</v>
+        <v>0.06197088090415424</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0926505126845593</v>
+        <v>0.07629054331370994</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07955047380041404</v>
+        <v>0.06000514538499846</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02453860298116338</v>
+        <v>0.02004329865908068</v>
       </c>
       <c r="T16" t="n">
-        <v>0.08232094321025227</v>
+        <v>0.04306507903819121</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005047149437553508</v>
+        <v>0.003687016031933046</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07635936866608929</v>
+        <v>0.009679925365330102</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004813052999527168</v>
+        <v>0.001506929595399503</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0325864168797924</v>
+        <v>0.01116930568864888</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02206831590839885</v>
+        <v>0.01832300798841192</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08809424693144803</v>
+        <v>0.06926596490463376</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0129056019339226</v>
+        <v>0.06545293071794567</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01447035482221734</v>
+        <v>0.01345100746603086</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03626374417907349</v>
+        <v>-0.01353604261625696</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7852306396159778</v>
+        <v>0.659672705753373</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06108854773459486</v>
+        <v>0.04529861990259024</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07420910303612277</v>
+        <v>0.06834692239677743</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0452276535214751</v>
+        <v>0.08195684180686336</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05918042691657614</v>
+        <v>0.01425034982180176</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03848750271415588</v>
+        <v>0.008007716596965758</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05454976711579271</v>
+        <v>0.01999962084650189</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004669053692886767</v>
+        <v>0.05262738959130398</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03548993296012785</v>
+        <v>0.01942075539016221</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06054259092068483</v>
+        <v>0.07664815363710674</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07086093491388247</v>
+        <v>0.04889600749003047</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02937356075266946</v>
+        <v>0.06635468928318619</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0591340224030739</v>
+        <v>0.02586256372183094</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04344838471172272</v>
+        <v>0.02851580653682216</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01763341019380643</v>
+        <v>0.02309270084833453</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04019333829762931</v>
+        <v>0.007729012544551125</v>
       </c>
       <c r="U17" t="n">
-        <v>1.592367341258381e-05</v>
+        <v>1.990864345582258e-06</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05135758879138294</v>
+        <v>0.06233179915246786</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06771121302455999</v>
+        <v>0.06766069958560615</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02877111432813154</v>
+        <v>0.07651253880804142</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03666653652601093</v>
+        <v>0.08587231560065194</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05075049632456355</v>
+        <v>0.03804892670475991</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01564803496487733</v>
+        <v>0.0341153891264214</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05499086248185982</v>
+        <v>0.04844918974287699</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0115688782384618</v>
+        <v>0.005065242007242547</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1583179241998385</v>
+        <v>0.1580501395693083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002914324311007958</v>
+        <v>0.04239529665332592</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08163393020806815</v>
+        <v>0.07737454189007545</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06845792883215819</v>
+        <v>0.09941595844496164</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002321434892284261</v>
+        <v>0.0008504791434328577</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04890114224967652</v>
+        <v>0.0561621333425337</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02900395433648144</v>
+        <v>0.01630765079794027</v>
       </c>
       <c r="L18" t="n">
-        <v>0.058099661450586</v>
+        <v>0.02350711016783547</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06598350640915475</v>
+        <v>0.03053785562140368</v>
       </c>
       <c r="N18" t="n">
-        <v>0.025357449834402</v>
+        <v>0.02599199004838845</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07094527621569154</v>
+        <v>0.01362012410149029</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01386849900709036</v>
+        <v>0.005723091297422342</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.004603423586606509</v>
+        <v>0.006507829453733289</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07568219679513638</v>
+        <v>0.1107904267060108</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07466559862505256</v>
+        <v>0.06061695399192305</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07798886515617866</v>
+        <v>0.03564891288313991</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06344005020738465</v>
+        <v>0.02411927509530105</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02830210557826401</v>
+        <v>0.01183834235307638</v>
       </c>
       <c r="W18" t="n">
-        <v>0.001437999967723561</v>
+        <v>0.1009040456885696</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07104464231568618</v>
+        <v>0.02883335849972612</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03418677419591672</v>
+        <v>0.06321846537577214</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07052402320277308</v>
+        <v>0.03998175423735853</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.006728074437783095</v>
+        <v>0.1082339263123949</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02390913818489341</v>
+        <v>0.01742047789418417</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1366016945550128</v>
+        <v>0.09163839213934212</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6191192889216909</v>
+        <v>0.9420775135987616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08689396943381637</v>
+        <v>0.05651359732366096</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0363368018216861</v>
+        <v>0.01688985877326389</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09491838186969521</v>
+        <v>0.03057201075274472</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09454083761785891</v>
+        <v>0.1423878767601741</v>
       </c>
       <c r="J19" t="n">
-        <v>0.036608731282057</v>
+        <v>0.112477416078962</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003328566619225567</v>
+        <v>0.01562514006350757</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0055017360549818</v>
+        <v>0.002606052253516914</v>
       </c>
       <c r="M19" t="n">
-        <v>0.102908011407809</v>
+        <v>0.08142226614181951</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01853129087028007</v>
+        <v>0.05684298773308879</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02230632123080899</v>
+        <v>0.07315559039804781</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01581338752005223</v>
+        <v>0.0009093665845788911</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.005302137050474677</v>
+        <v>0.01364613211795647</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09441999113540153</v>
+        <v>0.04191805941665758</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07035337162436536</v>
+        <v>0.003676548749379564</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06345271455942197</v>
+        <v>0.01269845979451715</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0117426896202458</v>
+        <v>0.06706113238183539</v>
       </c>
       <c r="V19" t="n">
-        <v>0.044846315632533</v>
+        <v>0.07479232129228477</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04309041132331959</v>
+        <v>0.05066099757183209</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02119586818661865</v>
+        <v>0.003851966141766513</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0092366221883115</v>
+        <v>0.04411870370140349</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03875288790999366</v>
+        <v>0.04115893268427658</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07690726565500752</v>
+        <v>0.02782662058320476</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.006007399343338483</v>
+        <v>0.02918796270152052</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1824449728236547</v>
+        <v>0.0890493099100888</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1928369588836094</v>
+        <v>0.1930332250563116</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008930518337798539</v>
+        <v>0.007915807978085717</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08367175500476147</v>
+        <v>0.04624928493131507</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03822958334479928</v>
+        <v>0.01017329068467521</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1095957618430047</v>
+        <v>0.0956378899852062</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004830378152668284</v>
+        <v>0.01789868148194353</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03786586585728893</v>
+        <v>0.05521353181942136</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1168483451397852</v>
+        <v>0.004642376673823909</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0242306897983495</v>
+        <v>0.08368708938826232</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01695275704888587</v>
+        <v>0.09057405840194738</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008604635477526554</v>
+        <v>0.01297449389358061</v>
       </c>
       <c r="P20" t="n">
-        <v>0.02543011161187757</v>
+        <v>0.04131132797533317</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.108050169285597</v>
+        <v>0.0348102086488772</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02335069433268029</v>
+        <v>0.03194874390282004</v>
       </c>
       <c r="S20" t="n">
-        <v>0.002922657411651447</v>
+        <v>0.0406034514502866</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04977668519398616</v>
+        <v>0.01526699234206926</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07510036305068234</v>
+        <v>0.09132563505913453</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02129035409107911</v>
+        <v>0.02564875756910801</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05319387018883753</v>
+        <v>0.02052338593138144</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02647867523393038</v>
+        <v>0.01452331776643849</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04315832348158026</v>
+        <v>0.0416049936747686</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03946928506947042</v>
+        <v>0.08082933009122491</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.08043312552364543</v>
+        <v>0.07627707150350116</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.001585395520113864</v>
+        <v>0.06036027884679514</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04558121044087569</v>
+        <v>0.04115238075865552</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2803313800235447</v>
+        <v>0.2412399255272804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09641787852502949</v>
+        <v>0.06086479016474963</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0411900534461875</v>
+        <v>0.03912832456392367</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05909090120784549</v>
+        <v>0.03136359225222649</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05376235590196442</v>
+        <v>0.04517908886475075</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02343073933337873</v>
+        <v>0.01910348184338229</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08662128531706705</v>
+        <v>0.06168400430399058</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07698553826592609</v>
+        <v>0.07608642173835879</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05081997758160754</v>
+        <v>0.06637671996966651</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07041481548497706</v>
+        <v>0.05242157515261845</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04279788106471009</v>
+        <v>0.01889486042427479</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02243820995809888</v>
+        <v>0.0554588807397217</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.004190452849442324</v>
+        <v>0.001229827758089141</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04455468766717809</v>
+        <v>0.02920141775528008</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08944466674804392</v>
+        <v>0.07204101889687126</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02090411590506757</v>
+        <v>0.07844298964536175</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02372267378792389</v>
+        <v>0.04514442884002336</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07697070373406596</v>
+        <v>0.07315633888984732</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008342149028061557</v>
+        <v>0.04166907051605388</v>
       </c>
       <c r="X21" t="n">
-        <v>0.074960569767945</v>
+        <v>0.06551534259357691</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.002135177572373417</v>
+        <v>0.001738500929883427</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01589202388054766</v>
+        <v>0.0508819577619444</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.009094682885198454</v>
+        <v>0.013376575201739</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.005818460087359756</v>
+        <v>0.001040791193665908</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08791880521134085</v>
+        <v>0.08526401494366023</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2161592892897003</v>
+        <v>0.2132411517410725</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01531051249775691</v>
+        <v>0.01961474888518393</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04189331380668113</v>
+        <v>0.05180502275197374</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07257920456443288</v>
+        <v>0.02793343508869718</v>
       </c>
       <c r="I22" t="n">
-        <v>0.080304392428725</v>
+        <v>0.0103193333402861</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08276127485332861</v>
+        <v>0.03675279510262662</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08300894752246292</v>
+        <v>0.08197558834710658</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08573000379428203</v>
+        <v>0.07366061216306899</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04228623482501467</v>
+        <v>0.07617023130948551</v>
       </c>
       <c r="N22" t="n">
-        <v>0.004435188830667763</v>
+        <v>0.08863487493985193</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08397481091463554</v>
+        <v>0.0480884325464294</v>
       </c>
       <c r="P22" t="n">
-        <v>0.05019884482548525</v>
+        <v>0.0558170731851628</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06575501444108754</v>
+        <v>0.0001023753768814162</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0389365941087179</v>
+        <v>0.06172699678327608</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05475385667516056</v>
+        <v>0.06481100225639723</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00136884150560367</v>
+        <v>3.724240621960351e-05</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004582291188895724</v>
+        <v>0.04945987059556029</v>
       </c>
       <c r="V22" t="n">
-        <v>0.009435961676320529</v>
+        <v>0.027948996881295</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07521372287834088</v>
+        <v>0.07563654223849833</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0297613055564513</v>
+        <v>0.05486178029806352</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01128953482051513</v>
+        <v>0.04298346755492217</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02935182838913067</v>
+        <v>0.02908702994854917</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.00597235207648067</v>
+        <v>0.00207909010258221</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03109596781982301</v>
+        <v>0.02049345789788228</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07192048004568227</v>
+        <v>0.06602384018274093</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.217685042249292</v>
+        <v>1.01981477007303</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1116513121044146</v>
+        <v>0.07614130445106239</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00225766044671104</v>
+        <v>0.002595458559376452</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008718044351159625</v>
+        <v>0.001917738237443343</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0522750165724894</v>
+        <v>0.03794560259907291</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01341854972583898</v>
+        <v>0.003076701994003069</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004006985804806455</v>
+        <v>0.08322184746886767</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004691596116333611</v>
+        <v>0.0003215971136255866</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01148729245698554</v>
+        <v>0.02243896094771722</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06100465690091619</v>
+        <v>0.03347428732056413</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01556810788358921</v>
+        <v>0.003110375300761332</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0008344163182367548</v>
+        <v>0.0257325082023644</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07727949925234566</v>
+        <v>0.07981429160527646</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01813226182732395</v>
+        <v>0.02657637660330294</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08873976916741352</v>
+        <v>0.01323104371628187</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1101245422004849</v>
+        <v>0.09409934524944791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05832642158794405</v>
+        <v>0.1058008704847479</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03546372184662937</v>
+        <v>0.03099182816024253</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02764434848053702</v>
+        <v>0.0168565103842434</v>
       </c>
       <c r="X23" t="n">
-        <v>0.06553436702925888</v>
+        <v>0.08920493626664257</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.04315823292067308</v>
+        <v>0.08891779217755187</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06233985889960359</v>
+        <v>0.02399408150899363</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08531374671614002</v>
+        <v>0.06812727547233992</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.04202959139016441</v>
+        <v>0.07240926617607045</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06711181853898311</v>
+        <v>0.1014958325285188</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1948338001535816</v>
+        <v>0.1950593915856238</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01494031650690658</v>
+        <v>0.01066919118635907</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07557707896627731</v>
+        <v>0.01371345290532305</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03835390768361405</v>
+        <v>0.05392657180162012</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01309596193629105</v>
+        <v>0.0229333475491771</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08651679171541715</v>
+        <v>0.06477172470970893</v>
       </c>
       <c r="K24" t="n">
-        <v>0.008232165930816731</v>
+        <v>0.04765752242270317</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04352858898015633</v>
+        <v>0.08063497459739333</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0930020788968528</v>
+        <v>0.04296867115391367</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03839027340562888</v>
+        <v>0.01826124640688824</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00161470689029984</v>
+        <v>0.001302935724815325</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05078718803462976</v>
+        <v>0.08690272617930865</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02753898605714817</v>
+        <v>0.007280449391881243</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0686528377080184</v>
+        <v>0.09195855544902719</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07562522852160181</v>
+        <v>0.04798940750675984</v>
       </c>
       <c r="T24" t="n">
-        <v>0.002768404476479659</v>
+        <v>0.05673489689314495</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04788818344349562</v>
+        <v>0.05316492165177769</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02353407587994696</v>
+        <v>0.00597894111467832</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0686033197519331</v>
+        <v>0.06020385132540001</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01055076765650868</v>
+        <v>0.02151730316487512</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03265107106785913</v>
+        <v>0.03287533419193153</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.05101255792836318</v>
+        <v>0.01811083679264411</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05197865310328826</v>
+        <v>0.07426260737768452</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.07515685545846644</v>
+        <v>0.08618053050298492</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.1925986207230647</v>
+        <v>-0.2466159566609749</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6275863925989461</v>
+        <v>0.5847959385968093</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006307755139001167</v>
+        <v>0.006799210609504066</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04021970535133192</v>
+        <v>0.06802537229786228</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07609928663077915</v>
+        <v>0.06409357311172102</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0119942631419559</v>
+        <v>0.02743516369670916</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03857579479863687</v>
+        <v>0.08785015774346176</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003258512832962389</v>
+        <v>0.002019188585827213</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08755244853294238</v>
+        <v>0.07287334307501236</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06232104062403404</v>
+        <v>0.01063609957776093</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02903720605275441</v>
+        <v>0.03386936997062728</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1087350513879837</v>
+        <v>0.101092788428461</v>
       </c>
       <c r="P25" t="n">
-        <v>0.003607255079955491</v>
+        <v>0.05797728030063439</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01331855871141173</v>
+        <v>0.02097584837310702</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01893310434083417</v>
+        <v>0.06056928296443773</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04516150485204365</v>
+        <v>0.06459115148020149</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06155820585003179</v>
+        <v>0.01781844740887701</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002094681918794952</v>
+        <v>0.006051831790588528</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01900818807553798</v>
+        <v>0.01712717008696995</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01986879563428694</v>
+        <v>0.005663349468826327</v>
       </c>
       <c r="X25" t="n">
-        <v>0.06813104602847357</v>
+        <v>0.04934431294052767</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.04099043078857841</v>
+        <v>0.02729148744276112</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08746476634360033</v>
+        <v>0.06636026778438785</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1072667409182291</v>
+        <v>0.07321316718745675</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05417263659094104</v>
+        <v>0.05832213567427714</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2529677355079935</v>
+        <v>-0.2651334617833642</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1146532815772887</v>
+        <v>0.1141635213726958</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005245674721990592</v>
+        <v>0.009281044831337021</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07427157760428338</v>
+        <v>0.08010705448155349</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06953544492772679</v>
+        <v>0.02859997783395522</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04689460146541959</v>
+        <v>0.02838026004731333</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03826587430049154</v>
+        <v>0.03720176248428655</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003511356395377925</v>
+        <v>0.04456548856885037</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01057218879071498</v>
+        <v>0.001334622007543106</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07198000212734984</v>
+        <v>0.05413259395850308</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0002173715173304006</v>
+        <v>0.001480455207631558</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06969641406632694</v>
+        <v>0.04866933802119568</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07883927070477802</v>
+        <v>0.08001583343608772</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.005098823053046933</v>
+        <v>0.04579084163231111</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04978947485004109</v>
+        <v>0.07984049525490536</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01708837459745698</v>
+        <v>0.01937066172001049</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08728939815637916</v>
+        <v>0.006053587864028015</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06756602028982642</v>
+        <v>0.07711188985320327</v>
       </c>
       <c r="V26" t="n">
-        <v>0.00980247013831336</v>
+        <v>0.0249531036735758</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08563003599442116</v>
+        <v>0.06199330179556198</v>
       </c>
       <c r="X26" t="n">
-        <v>0.04372219300658568</v>
+        <v>0.01507359273076567</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05217324985428176</v>
+        <v>0.07219628327977158</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02881504872938149</v>
+        <v>0.078807330359339</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04926019887470313</v>
+        <v>0.05269644078694308</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.03473493583377295</v>
+        <v>0.05234404017132756</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1790689509268548</v>
+        <v>0.1678981730777884</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1608026367821857</v>
+        <v>0.1625421200295948</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05642064535698073</v>
+        <v>0.0542458016996974</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01397979095635117</v>
+        <v>0.03795861292334297</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01389786721616315</v>
+        <v>0.02748726698546974</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02279939787175327</v>
+        <v>0.006483282686727471</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08346497381616934</v>
+        <v>0.03559852742789369</v>
       </c>
       <c r="K27" t="n">
-        <v>0.008987491269236208</v>
+        <v>0.05583503165223602</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05041954314618383</v>
+        <v>0.02423240022033964</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1021930855983549</v>
+        <v>0.1196588521483345</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04918782189021222</v>
+        <v>0.07075354857444971</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05680055914064387</v>
+        <v>0.02464886886425678</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0479070212287924</v>
+        <v>0.03071587012978833</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.103368023497479</v>
+        <v>0.1175754280199101</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01921597278578725</v>
+        <v>0.001964156764587773</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01281626145709759</v>
+        <v>0.00579339400949451</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01192451708811836</v>
+        <v>0.005550212344307123</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08405756165060604</v>
+        <v>0.101129988475208</v>
       </c>
       <c r="V27" t="n">
-        <v>0.07671607437156963</v>
+        <v>0.009602426491952965</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02693795550273847</v>
+        <v>0.1103864207720602</v>
       </c>
       <c r="X27" t="n">
-        <v>0.06142206774422918</v>
+        <v>0.009026534151462635</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01135167771720059</v>
+        <v>0.1045474343798481</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02975131210370353</v>
+        <v>0.01707002255880276</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.005089190051401808</v>
+        <v>0.0283876951900137</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.05129118853922735</v>
+        <v>0.001348223529815768</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.163135494559085</v>
+        <v>0.1525105849795829</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1935070099363741</v>
+        <v>0.1802423540154537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005353186136393867</v>
+        <v>0.008458794477783841</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0814843956134651</v>
+        <v>0.07989274544230189</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0786542087795096</v>
+        <v>0.008788896941187223</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06920910854637013</v>
+        <v>0.0607367866036267</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03396344225887572</v>
+        <v>0.009256474893667675</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07303254073264454</v>
+        <v>0.03626132522756663</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001522609888684205</v>
+        <v>0.0110236401748641</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01575692880040185</v>
+        <v>0.07572229949672403</v>
       </c>
       <c r="N28" t="n">
-        <v>0.08214185905691106</v>
+        <v>0.08105011240197181</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07560821416241861</v>
+        <v>0.08031621455042191</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07236926866775877</v>
+        <v>0.07562104301812239</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03425634633846032</v>
+        <v>0.002839490290397347</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01451845057024085</v>
+        <v>0.07483909943085794</v>
       </c>
       <c r="S28" t="n">
-        <v>0.00112046299970469</v>
+        <v>0.0002826544902719549</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01565472833488223</v>
+        <v>0.05275183925110112</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05990440401685174</v>
+        <v>0.0216161676055691</v>
       </c>
       <c r="V28" t="n">
-        <v>0.00945843455098736</v>
+        <v>0.0565088276607108</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09318641461487634</v>
+        <v>0.06750148603202014</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0008690106405978076</v>
+        <v>0.002493048428370249</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07377204323105925</v>
+        <v>0.0632216101374114</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04078239298820833</v>
+        <v>0.05304008988891149</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01083117445036082</v>
+        <v>0.0002643358936942343</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05655037462033682</v>
+        <v>0.07751301766244603</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02250795093069029</v>
+        <v>0.03625025585004506</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.4727217170047598</v>
+        <v>0.4743785910805463</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0657345371505573</v>
+        <v>0.06152636677106903</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07449840391096454</v>
+        <v>0.03755653246728221</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08803184703530691</v>
+        <v>0.05913156544508816</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03999470461394908</v>
+        <v>0.004456836206955158</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01966514443580818</v>
+        <v>0.01505889699512419</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004243287173388724</v>
+        <v>0.0721538979625987</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007944697802191867</v>
+        <v>0.005691155921157974</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05734909456933666</v>
+        <v>0.04367169695487053</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01524096748253844</v>
+        <v>0.08589577901572824</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08104455999631274</v>
+        <v>0.1024104313972442</v>
       </c>
       <c r="P29" t="n">
-        <v>0.000153917915261952</v>
+        <v>0.002613195555998222</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0914221498389101</v>
+        <v>0.03065519959734922</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07129946973566378</v>
+        <v>0.02843093975157411</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02190117970752767</v>
+        <v>0.00632562800032148</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0490841499756694</v>
+        <v>0.002304919228967543</v>
       </c>
       <c r="U29" t="n">
-        <v>0.00290743596930392</v>
+        <v>0.1139037073304475</v>
       </c>
       <c r="V29" t="n">
-        <v>0.001670890164739688</v>
+        <v>0.03139715110900154</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03931877695615171</v>
+        <v>0.01359764007672388</v>
       </c>
       <c r="X29" t="n">
-        <v>0.05837244792508598</v>
+        <v>0.0577487679918675</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.06140362303861173</v>
+        <v>0.1120031178226615</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.09139476544675759</v>
+        <v>0.08675478536550386</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.002036673311256097</v>
+        <v>0.01732010811108165</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.05528727584470609</v>
+        <v>0.009391680921383469</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.02256982269894593</v>
+        <v>0.05470951859184871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.23034059476502</v>
+        <v>0.2675932313275144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06618900775928385</v>
+        <v>0.07062736755594419</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005412443187603469</v>
+        <v>0.06319445440723749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0169060544251252</v>
+        <v>0.00443538556394633</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06889058647281115</v>
+        <v>0.02671357246461395</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009940139651235065</v>
+        <v>0.08402892428593806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0767282745924486</v>
+        <v>0.06654047956318621</v>
       </c>
       <c r="L2" t="n">
-        <v>0.026646925633012</v>
+        <v>0.06472312378209051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003674448074299451</v>
+        <v>0.01446484521185193</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07685195989412058</v>
+        <v>0.006176647872244256</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07503269786108029</v>
+        <v>0.05010516867913142</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08046043805328375</v>
+        <v>0.06878041613323302</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03243995751831705</v>
+        <v>0.08256377347844146</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08468101156120825</v>
+        <v>0.05892346280987814</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0714100080095065</v>
+        <v>0.05132833787517278</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03825904299266644</v>
+        <v>0.002492598904972641</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02608945871434182</v>
+        <v>0.007338723339678552</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004275504747621844</v>
+        <v>0.0009516702081696116</v>
       </c>
       <c r="W2" t="n">
-        <v>0.003988091028668862</v>
+        <v>0.01014307045351586</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05149808898448469</v>
+        <v>0.0253626930100256</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01276809900502706</v>
+        <v>0.01969839742218511</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04928114473894846</v>
+        <v>0.05799083174514895</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1014741856970311</v>
+        <v>0.07675914466293383</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01710243139787459</v>
+        <v>0.08665691057046007</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1233454777090742</v>
+        <v>0.1652337620803336</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6903373052769319</v>
+        <v>0.3600192848231029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009149649363257805</v>
+        <v>0.02506546136501403</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0592514685481077</v>
+        <v>0.09349986969474718</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09658632347140519</v>
+        <v>0.07272813564690779</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02421946789837897</v>
+        <v>0.04793162127495416</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009369678275956554</v>
+        <v>0.034603610109026</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08559152659937067</v>
+        <v>0.01371526148790505</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007695020819021224</v>
+        <v>0.0427336146076775</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1191999778075245</v>
+        <v>0.0417332386494546</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01191520755167471</v>
+        <v>0.110784941117636</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07562260029055454</v>
+        <v>0.009007230066539314</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08496806843863416</v>
+        <v>0.001955821069539981</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01417930228574804</v>
+        <v>0.09960830877698616</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01475013487576222</v>
+        <v>0.05507147173372086</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02884470186437457</v>
+        <v>0.05367469932981831</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02420850965671652</v>
+        <v>0.01808893507215482</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04275229444789966</v>
+        <v>0.0328509728031825</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008360154351929341</v>
+        <v>0.008563638296617753</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06783534804907375</v>
+        <v>0.01146646642185045</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0243677481641717</v>
+        <v>0.05002724274796081</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03980580580310916</v>
+        <v>0.0130795173649745</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01247168716778138</v>
+        <v>0.002421879150915645</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1119068306332476</v>
+        <v>0.05320555301693829</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.035183178063232</v>
+        <v>0.1081825101954783</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1164891597298832</v>
+        <v>0.1655756587848228</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2952773283172993</v>
+        <v>0.310922414596966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005136448869195165</v>
+        <v>0.04010043018843513</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006829735543504564</v>
+        <v>0.01974980463183992</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08255797509010897</v>
+        <v>0.07855785800296669</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04541970825382887</v>
+        <v>0.05221064411687426</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03252817113045939</v>
+        <v>0.0339690058168564</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001694606496821825</v>
+        <v>0.005660859419742262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0293263750276181</v>
+        <v>0.01713991500857017</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01458642018663585</v>
+        <v>0.01887137044505175</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06420756513877339</v>
+        <v>0.08334758178633671</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01376866270475648</v>
+        <v>0.00509896196065308</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07088157573335047</v>
+        <v>0.08197299520279927</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1076409700400805</v>
+        <v>0.05629307165301678</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06352039340098017</v>
+        <v>0.04650763997218869</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03517920681760244</v>
+        <v>0.07668001908284089</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01939079045210136</v>
+        <v>0.08530028481410502</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006039231035283876</v>
+        <v>0.0559481047242423</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02143064351084038</v>
+        <v>0.01763060681184684</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01014526197508011</v>
+        <v>0.03778803102923239</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05781290947189017</v>
+        <v>0.05541587835101727</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08613060026424187</v>
+        <v>0.01601594641005995</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1041272899132751</v>
+        <v>0.006393161151310747</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0124887911281135</v>
+        <v>0.02456625654387152</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1091566678154573</v>
+        <v>0.08478157287614199</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5882086705124271</v>
+        <v>-0.655923810589321</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9523805463193674</v>
+        <v>1.394533514922882</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01752126154660766</v>
+        <v>0.04730112372232671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02010748711123161</v>
+        <v>0.005342933476577877</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006662251382585105</v>
+        <v>0.02383129847506297</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07844330221971497</v>
+        <v>0.09762593057804791</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01050162608989584</v>
+        <v>0.06011628375233095</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002088577949464175</v>
+        <v>0.009402660169289603</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05438567361669726</v>
+        <v>0.03955154073375142</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00120072603923157</v>
+        <v>0.008143219875328057</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08275595616974341</v>
+        <v>0.07501218534656663</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09088257833833961</v>
+        <v>0.1051744962573313</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08541976221060661</v>
+        <v>0.1005040760263286</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08279560141849598</v>
+        <v>0.04733378134663761</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03640515546885954</v>
+        <v>0.0159140301221387</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02487249264006213</v>
+        <v>0.1003380423424536</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03487701706001161</v>
+        <v>0.02946281517251831</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005126264926151021</v>
+        <v>0.0027284063882949</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01497466827770286</v>
+        <v>0.01822116460880166</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07661695271396084</v>
+        <v>0.06848779266226973</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06355331307793645</v>
+        <v>0.01419674437471272</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005968924098935753</v>
+        <v>0.04180216196552582</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0567464263789883</v>
+        <v>0.0001673953775823887</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.09281138526896932</v>
+        <v>0.006121216401200442</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05528259599580838</v>
+        <v>0.08322070082492218</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6085178130136797</v>
+        <v>-0.6371405766420055</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2342006722558039</v>
+        <v>0.2463863737224153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05350800044716054</v>
+        <v>0.006766463755742391</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05232731546399621</v>
+        <v>0.00774700838529407</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01390722317364404</v>
+        <v>0.06034150749101129</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01897801955000919</v>
+        <v>0.001271029453990051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03029777726704014</v>
+        <v>0.02233663896033434</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02923496585570133</v>
+        <v>0.008860527148123649</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008265342843530666</v>
+        <v>0.08453915750177814</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03217472719246962</v>
+        <v>0.01812453990110808</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002535640473554244</v>
+        <v>0.003143216102951412</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06207820519245354</v>
+        <v>0.0009570928363233328</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07068816086719078</v>
+        <v>0.1032344694956119</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01552419229893521</v>
+        <v>0.08967334221187999</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1116895579719289</v>
+        <v>0.1005876549644274</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08891926589248172</v>
+        <v>0.1052701877662809</v>
       </c>
       <c r="T6" t="n">
-        <v>0.006783862771853691</v>
+        <v>0.00514702257304099</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0218232191023931</v>
+        <v>0.02787955652307255</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00957518400557868</v>
+        <v>0.009432612840578586</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07364680437977764</v>
+        <v>0.02503414185474465</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06704874032378789</v>
+        <v>0.07964755746681411</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04193772334956763</v>
+        <v>0.03820113182752951</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.08267051356512095</v>
+        <v>0.0530331610274475</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03033229395636357</v>
+        <v>0.08784936426616509</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0760532640554606</v>
+        <v>0.0609226156457497</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1725906262255135</v>
+        <v>0.1689637756546086</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7677205203944354</v>
+        <v>0.6496549080104477</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01254568726442473</v>
+        <v>0.03509601326094238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01080958848917068</v>
+        <v>0.007368769605561753</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04594996799043401</v>
+        <v>0.1199289299681782</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09757937053650288</v>
+        <v>0.02953109916624212</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02676284497136639</v>
+        <v>0.08280145034085243</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0436407812014307</v>
+        <v>0.001456759544818184</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01137682565968583</v>
+        <v>0.1003808193221384</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09797808536051451</v>
+        <v>0.005121375571605451</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08866041126811181</v>
+        <v>0.1243650038480793</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005622776882580884</v>
+        <v>0.004011141655256868</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00880831546573624</v>
+        <v>0.08922284904180748</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06223334419511688</v>
+        <v>0.01575855116900069</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0005857625510310641</v>
+        <v>0.05299831676126682</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01717437273103462</v>
+        <v>0.002713715623055273</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1104758151866002</v>
+        <v>0.03833770963002628</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003600029339961468</v>
+        <v>0.03100264974974366</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1078278333751185</v>
+        <v>0.1199258866359244</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0343641385781419</v>
+        <v>0.006668850437546456</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04468394585482189</v>
+        <v>0.05489759584640521</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0009575914836549404</v>
+        <v>0.009924403626540807</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0850602103624216</v>
+        <v>0.01980431414575917</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01308817647305027</v>
+        <v>0.01155812844048058</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07021412477908785</v>
+        <v>0.03712566660876806</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3937975325801231</v>
+        <v>0.4254155322855189</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2966884821513018</v>
+        <v>0.2931875954659224</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01073443669756946</v>
+        <v>0.01359097988214312</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08003442030245295</v>
+        <v>0.09297951981598711</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03595342910901308</v>
+        <v>0.05990230763261136</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04665949587907076</v>
+        <v>0.02777393263267961</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08208115865965293</v>
+        <v>0.01516949277706994</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04101329316421707</v>
+        <v>0.001823664050444874</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07703268024202854</v>
+        <v>0.02404645438214344</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08698640199981951</v>
+        <v>0.0195717568975451</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009167905889565542</v>
+        <v>0.03477388215880545</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02893659629261917</v>
+        <v>0.007038956762219628</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005625140274571934</v>
+        <v>0.01673563398881359</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01176583419769075</v>
+        <v>0.08941607913760304</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08435862683093685</v>
+        <v>0.08729143975529668</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07910462844680186</v>
+        <v>0.07987708211939239</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0111192653558942</v>
+        <v>0.01854607688100093</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002676041535118136</v>
+        <v>0.0004098367673470563</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002299346704441439</v>
+        <v>0.001928885261510753</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07438208037636257</v>
+        <v>0.08523885935301202</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05535282610882915</v>
+        <v>0.04377876223023209</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04121084561566248</v>
+        <v>0.07191873299320638</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06985890428496284</v>
+        <v>0.08346831857528365</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.002676865715767251</v>
+        <v>0.06850226787424329</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06096977631695149</v>
+        <v>0.0562170780714085</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1593147625250467</v>
+        <v>0.08830721041578046</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5091572181951762</v>
+        <v>0.4358991563128854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007916091975068407</v>
+        <v>0.04051580316025068</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0850555581123163</v>
+        <v>0.0487296278844308</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0682390804383405</v>
+        <v>0.006508416762895538</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001458188092462956</v>
+        <v>0.04350049385324211</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07011960176175941</v>
+        <v>0.08625603852021702</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01504614515298212</v>
+        <v>0.03807690943342258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08403783716462568</v>
+        <v>0.05379434392984882</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06106126822526641</v>
+        <v>0.004593510723536202</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07425196592252414</v>
+        <v>0.08031544265135385</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03233977857616964</v>
+        <v>0.08350908150540289</v>
       </c>
       <c r="P9" t="n">
-        <v>0.009898777772678252</v>
+        <v>0.03820616853350202</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03092103401558646</v>
+        <v>0.04611437600099267</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09002141317167818</v>
+        <v>0.03818061181219149</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04402964006263074</v>
+        <v>0.0461798225825437</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02075540373274701</v>
+        <v>0.02863657765142165</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009861853044532191</v>
+        <v>0.0001297761287365448</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09263857875016672</v>
+        <v>0.07530891841657482</v>
       </c>
       <c r="W9" t="n">
-        <v>0.000423443935870883</v>
+        <v>0.02774630620642668</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01627453131660232</v>
+        <v>0.02468533141231356</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01020062368822736</v>
+        <v>0.002696580123595267</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.007660531202225622</v>
+        <v>0.0653118468220495</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07252093190537064</v>
+        <v>0.01930060714889771</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1023922047577297</v>
+        <v>0.1017034087361541</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.230044738459763</v>
+        <v>0.1992121179262586</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4816263013705576</v>
+        <v>0.4540985741943535</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03197885266113808</v>
+        <v>0.001378772921572471</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06849931091893496</v>
+        <v>0.06408544320758955</v>
       </c>
       <c r="H10" t="n">
-        <v>0.019091765263606</v>
+        <v>0.00165294870036234</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0277972012332226</v>
+        <v>0.04079415314882889</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001563736181459218</v>
+        <v>0.02239202927600857</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04284277624735353</v>
+        <v>0.01618221209165525</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01156334185126381</v>
+        <v>0.008605732547474373</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09731787456752564</v>
+        <v>0.02856857982159987</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001697391830960431</v>
+        <v>0.02745395839336971</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02337563371839359</v>
+        <v>0.08724250575275755</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07303913116292352</v>
+        <v>0.04552166166480007</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08614241435853524</v>
+        <v>0.06523243433948653</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02023527572773157</v>
+        <v>0.0830437720257752</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03853698107024685</v>
+        <v>0.01820573954172882</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04286758214557029</v>
+        <v>0.03680848044753419</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004788912969875674</v>
+        <v>0.03956159370556345</v>
       </c>
       <c r="V10" t="n">
-        <v>0.003516458103067927</v>
+        <v>0.007162590001518191</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09298103268772001</v>
+        <v>0.07940725710252623</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07644841735367626</v>
+        <v>0.06967568021293845</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03231260473275448</v>
+        <v>0.08623918885948935</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08212667595421419</v>
+        <v>0.07717722061891497</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1054656804401512</v>
+        <v>0.08068830988367728</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.015810948819675</v>
+        <v>0.01291973573482869</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.129448245585633</v>
+        <v>-0.1341829475738907</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.141486655854993</v>
+        <v>1.270921045505325</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0171038982513851</v>
+        <v>0.1002911433112275</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05403832202956799</v>
+        <v>0.07820749117845384</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02530582166863315</v>
+        <v>0.00893762914413126</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06196537271293188</v>
+        <v>0.02761852471042693</v>
       </c>
       <c r="J11" t="n">
-        <v>7.890020596850574e-06</v>
+        <v>0.1086256332882431</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07869189153099856</v>
+        <v>0.1040425162235475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04444841737792603</v>
+        <v>0.009649198721144347</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01593281020657364</v>
+        <v>0.06427065700266835</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05659185431692996</v>
+        <v>0.0225413074477827</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07416693431511424</v>
+        <v>0.01856047353154055</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04882105216316909</v>
+        <v>0.05773335789417809</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03476201089571051</v>
+        <v>0.003132584797664842</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0469953498826629</v>
+        <v>0.04164185646017967</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08279835170813346</v>
+        <v>0.005424425366487884</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06187639538906865</v>
+        <v>0.006290846034932483</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006342477874578646</v>
+        <v>0.03028963001794754</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02746184507847381</v>
+        <v>0.04238137689824101</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02709477916894381</v>
+        <v>0.07076971807361945</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04486540079975939</v>
+        <v>0.0272262622660181</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01027136348785363</v>
+        <v>0.01029356660582154</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0363631284054127</v>
+        <v>0.02178406475076243</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07163193846339797</v>
+        <v>0.06729617764375866</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.07246269425217795</v>
+        <v>0.07299155863122214</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1361811319077837</v>
+        <v>-0.109455549111238</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1778121508954514</v>
+        <v>0.175455248805549</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006936479098972027</v>
+        <v>0.07607966722767907</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01672567746133419</v>
+        <v>0.005762407023050556</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07829513679486444</v>
+        <v>0.08999123892356654</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02830807386434619</v>
+        <v>0.05912299334936513</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007441922410323054</v>
+        <v>0.02738384893565585</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001561181085451255</v>
+        <v>0.005260413539624832</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01949674107034924</v>
+        <v>0.01537148456479263</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01092123734826086</v>
+        <v>0.01391779074478728</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05303083591896665</v>
+        <v>0.04590797929568483</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03573386208081771</v>
+        <v>0.06935245189469726</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06990620905028172</v>
+        <v>0.07731402041657456</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06383096123784313</v>
+        <v>0.05111159058130343</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06564698813083678</v>
+        <v>0.08687603366573726</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07497182980235066</v>
+        <v>0.09338005213545823</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0382707179360092</v>
+        <v>0.03271340303973416</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08640651486178208</v>
+        <v>0.06408151678260482</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03477790283861697</v>
+        <v>0.01979154810645493</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08056951492711105</v>
+        <v>0.0354268060954385</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07670509716901873</v>
+        <v>0.01079764301046411</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03445341338113191</v>
+        <v>0.00438698837938847</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04538366125913806</v>
+        <v>0.06611594921962569</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.05992710113750712</v>
+        <v>0.0442236584405138</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01069894113468688</v>
+        <v>0.005630514627797955</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1651443927579213</v>
+        <v>0.1775623371375107</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2057581672721112</v>
+        <v>0.2689656709150177</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007138150031475421</v>
+        <v>0.1082381347202885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0007536819483153309</v>
+        <v>0.01790987195836687</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02063556233178795</v>
+        <v>0.04301803048272119</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08303718671408496</v>
+        <v>0.002636174722799512</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00218257589214888</v>
+        <v>0.1080093081010601</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08531629773536953</v>
+        <v>0.07023139281769383</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0543660250955292</v>
+        <v>0.06843238643648578</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01312411696879162</v>
+        <v>0.03426151206903021</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01090525499759687</v>
+        <v>0.006813832651714851</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1058465642033534</v>
+        <v>0.001292253707374161</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01374768950876019</v>
+        <v>0.07660366039900307</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003153885816585878</v>
+        <v>0.0438276253057648</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01508850650071251</v>
+        <v>0.009482844565239693</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1167342154576433</v>
+        <v>0.1064330096174304</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03791152992631244</v>
+        <v>0.005074990359498836</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1174911724033222</v>
+        <v>0.1070349362145304</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001536195991658575</v>
+        <v>0.02336967297305212</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1406751494836689</v>
+        <v>0.08862733729146217</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02733763681206513</v>
+        <v>0.0199251645343905</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02934910140969987</v>
+        <v>0.02676941597410379</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.08598753493473367</v>
+        <v>0.02411103045957323</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02750751698449326</v>
+        <v>0.006942039361068008</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001744488518906507</v>
+        <v>0.0009553752773480011</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2732445103411564</v>
+        <v>0.2117070689364375</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2427574077637232</v>
+        <v>0.2036203057455881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06467200588980174</v>
+        <v>0.05266753539959906</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05261474858358306</v>
+        <v>0.0100353058528591</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05955788036561496</v>
+        <v>0.07394791988673545</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03033100420575702</v>
+        <v>0.09210337959774299</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03988580888727494</v>
+        <v>0.006702351013984831</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007142215435083404</v>
+        <v>0.005304099503294262</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07859900149429666</v>
+        <v>0.08952003344980305</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06732847660319206</v>
+        <v>0.002637580715067497</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02307731814022126</v>
+        <v>0.02486592859683504</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03846793103307291</v>
+        <v>0.01613732034999342</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0248940834571943</v>
+        <v>0.05110094970456989</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00993426012964178</v>
+        <v>0.07719996092543839</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07072773157277749</v>
+        <v>0.08837518832545943</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06789714290194232</v>
+        <v>0.07963379562214765</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0440467944969849</v>
+        <v>0.00800039743766565</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001831012273967986</v>
+        <v>0.05320862426403526</v>
       </c>
       <c r="V14" t="n">
-        <v>0.07411128004114106</v>
+        <v>0.05602395792665074</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05939607595807921</v>
+        <v>0.04470417582197083</v>
       </c>
       <c r="X14" t="n">
-        <v>0.004918979089121992</v>
+        <v>0.007625453753615894</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08277062779310344</v>
+        <v>0.05233414667383975</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08719308113801306</v>
+        <v>0.05095293765158206</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.009839610098611897</v>
+        <v>0.05333021607376148</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0007629304115224629</v>
+        <v>0.003588741453348073</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1670501791011007</v>
+        <v>0.1756681301008408</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2809568438276979</v>
+        <v>0.2634774505859505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1029752703914046</v>
+        <v>0.03098495488301666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008220036263939816</v>
+        <v>0.08062978131160475</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004782043852202514</v>
+        <v>0.02214079459214763</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004564099388764102</v>
+        <v>0.04448662287472776</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1030434415780336</v>
+        <v>0.08003169598968762</v>
       </c>
       <c r="K15" t="n">
-        <v>0.113397136566664</v>
+        <v>0.08986827401347722</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03575206995423406</v>
+        <v>0.06497828802204568</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02798789651099224</v>
+        <v>0.06909248483760372</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03790655910231356</v>
+        <v>0.009570359902780649</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02890139442492247</v>
+        <v>0.09665270823522275</v>
       </c>
       <c r="P15" t="n">
-        <v>0.035390702270375</v>
+        <v>0.02960052060132858</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03207809730907088</v>
+        <v>0.02784065891256964</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02890493029780524</v>
+        <v>0.01423755867018387</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06113923027367829</v>
+        <v>0.05047236354859942</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03484624061229234</v>
+        <v>0.0002075741294503322</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01883763773819552</v>
+        <v>0.0716445688528345</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05079592537357365</v>
+        <v>0.007302045676129021</v>
       </c>
       <c r="W15" t="n">
-        <v>0.04302515506067536</v>
+        <v>0.01999421901437328</v>
       </c>
       <c r="X15" t="n">
-        <v>0.004387854268501773</v>
+        <v>0.009624798895147349</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06582248997027455</v>
+        <v>0.03618701383519207</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05264288049100604</v>
+        <v>0.07363564562329032</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1031710279395352</v>
+        <v>0.03850424463571183</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00142788036154504</v>
+        <v>0.03231282294287552</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.21491546478028</v>
+        <v>0.2441129211629131</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2760836808641651</v>
+        <v>0.2606124188435093</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0761374493654579</v>
+        <v>0.05705984984114403</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07563340486738208</v>
+        <v>0.01619989420956182</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07048046626608911</v>
+        <v>0.04271121571519521</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07048702390836717</v>
+        <v>0.07106618868110325</v>
       </c>
       <c r="J16" t="n">
-        <v>0.009825207538430509</v>
+        <v>0.02505183622458625</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01992180428794389</v>
+        <v>0.02962064211227512</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01855979143683257</v>
+        <v>0.03085518554477023</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07379797318002219</v>
+        <v>0.08418450531620167</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06367004358852929</v>
+        <v>0.06293552999612229</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06757580050247693</v>
+        <v>0.03716423772413349</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06197088090415424</v>
+        <v>0.08900815505996217</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07629054331370994</v>
+        <v>0.07998897767277909</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06000514538499846</v>
+        <v>0.02732889519085203</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02004329865908068</v>
+        <v>0.0791598736295883</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04306507903819121</v>
+        <v>0.0119383018772016</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003687016031933046</v>
+        <v>0.01003694397618486</v>
       </c>
       <c r="V16" t="n">
-        <v>0.009679925365330102</v>
+        <v>0.05860783642055486</v>
       </c>
       <c r="W16" t="n">
-        <v>0.001506929595399503</v>
+        <v>0.01169037080079071</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01116930568864888</v>
+        <v>0.04275229266919074</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01832300798841192</v>
+        <v>0.001488423032984582</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06926596490463376</v>
+        <v>0.09087730275534639</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.06545293071794567</v>
+        <v>0.03997109594780131</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01345100746603086</v>
+        <v>0.0003024456016700356</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01353604261625696</v>
+        <v>0.01193136951809479</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.659672705753373</v>
+        <v>0.5181933841569073</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04529861990259024</v>
+        <v>0.02145844331969116</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06834692239677743</v>
+        <v>0.006578135627445353</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08195684180686336</v>
+        <v>0.04701257974325657</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01425034982180176</v>
+        <v>0.05353189494046378</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008007716596965758</v>
+        <v>0.05134247396399089</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01999962084650189</v>
+        <v>0.07179974926453225</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05262738959130398</v>
+        <v>0.08813997836426656</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01942075539016221</v>
+        <v>0.05273318784696545</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07664815363710674</v>
+        <v>0.07548308286384164</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04889600749003047</v>
+        <v>0.08963662812569191</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06635468928318619</v>
+        <v>0.03676432801116591</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02586256372183094</v>
+        <v>0.02423357587232624</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02851580653682216</v>
+        <v>0.01990598596671115</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02309270084833453</v>
+        <v>0.08717680512544233</v>
       </c>
       <c r="T17" t="n">
-        <v>0.007729012544551125</v>
+        <v>0.02321590394539821</v>
       </c>
       <c r="U17" t="n">
-        <v>1.990864345582258e-06</v>
+        <v>0.03661876893807639</v>
       </c>
       <c r="V17" t="n">
-        <v>0.06233179915246786</v>
+        <v>0.03379561430496973</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06766069958560615</v>
+        <v>0.0256566073004144</v>
       </c>
       <c r="X17" t="n">
-        <v>0.07651253880804142</v>
+        <v>0.08834876933272058</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.08587231560065194</v>
+        <v>0.01931026330534826</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03804892670475991</v>
+        <v>0.0109008132855069</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0341153891264214</v>
+        <v>0.009674571629386173</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.04844918974287699</v>
+        <v>0.02668183892238789</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.005065242007242547</v>
+        <v>0.03641696880843781</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1580501395693083</v>
+        <v>0.1545266682950542</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04239529665332592</v>
+        <v>0.07607105031346199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07737454189007545</v>
+        <v>0.0641481917671228</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09941595844496164</v>
+        <v>0.0275583488553081</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0008504791434328577</v>
+        <v>0.002798746601407816</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0561621333425337</v>
+        <v>0.07766320384969021</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01630765079794027</v>
+        <v>0.02597488124640491</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02350711016783547</v>
+        <v>0.07397767473802887</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03053785562140368</v>
+        <v>0.05035470554289723</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02599199004838845</v>
+        <v>0.06035498594983841</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01362012410149029</v>
+        <v>0.04089420450077388</v>
       </c>
       <c r="P18" t="n">
-        <v>0.005723091297422342</v>
+        <v>0.03012793867832865</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.006507829453733289</v>
+        <v>0.003232703465475013</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1107904267060108</v>
+        <v>0.07658733166628819</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06061695399192305</v>
+        <v>0.00403232841490808</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03564891288313991</v>
+        <v>0.05064351347494467</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02411927509530105</v>
+        <v>0.05731187721416071</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01183834235307638</v>
+        <v>0.03385082131752375</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1009040456885696</v>
+        <v>0.02009617643916034</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02883335849972612</v>
+        <v>0.05385351003486458</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06321846537577214</v>
+        <v>0.03847315908086623</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03998175423735853</v>
+        <v>0.05334579942483469</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1082339263123949</v>
+        <v>0.03817159220103554</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01742047789418417</v>
+        <v>0.04047725522267513</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.09163839213934212</v>
+        <v>0.1181562475056396</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9420775135987616</v>
+        <v>0.7400388090343128</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05651359732366096</v>
+        <v>0.02063601661151376</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01688985877326389</v>
+        <v>0.02681007461705515</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03057201075274472</v>
+        <v>0.02350534588923733</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1423878767601741</v>
+        <v>0.1144639042259053</v>
       </c>
       <c r="J19" t="n">
-        <v>0.112477416078962</v>
+        <v>0.0407035038739143</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01562514006350757</v>
+        <v>0.05048251802813006</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002606052253516914</v>
+        <v>0.01178812416286405</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08142226614181951</v>
+        <v>0.02552120517280215</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05684298773308879</v>
+        <v>0.02329437571660005</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07315559039804781</v>
+        <v>0.01337472016735433</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0009093665845788911</v>
+        <v>0.02132110773633367</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01364613211795647</v>
+        <v>0.1086092561821631</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04191805941665758</v>
+        <v>0.04459553790959336</v>
       </c>
       <c r="S19" t="n">
-        <v>0.003676548749379564</v>
+        <v>0.06258607940448631</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01269845979451715</v>
+        <v>0.01483371265025129</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06706113238183539</v>
+        <v>0.05637704593583898</v>
       </c>
       <c r="V19" t="n">
-        <v>0.07479232129228477</v>
+        <v>0.02800235461137012</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05066099757183209</v>
+        <v>0.05117709683819158</v>
       </c>
       <c r="X19" t="n">
-        <v>0.003851966141766513</v>
+        <v>0.09841658542418126</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.04411870370140349</v>
+        <v>0.03831725267670106</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.04115893268427658</v>
+        <v>0.01885773454620237</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02782662058320476</v>
+        <v>0.1041064948611748</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02918796270152052</v>
+        <v>0.002219952758135775</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0890493099100888</v>
+        <v>0.04799839224036676</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1930332250563116</v>
+        <v>0.1958224986825153</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007915807978085717</v>
+        <v>0.02477982797112906</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04624928493131507</v>
+        <v>0.02024311499652035</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01017329068467521</v>
+        <v>0.06012128479490877</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0956378899852062</v>
+        <v>0.05225228536181613</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01789868148194353</v>
+        <v>0.005801837362106902</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05521353181942136</v>
+        <v>0.02335579400338992</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004642376673823909</v>
+        <v>0.09038645201445808</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08368708938826232</v>
+        <v>0.06537301473674036</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09057405840194738</v>
+        <v>0.05837680823329541</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01297449389358061</v>
+        <v>0.02845527491880341</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04131132797533317</v>
+        <v>0.007952564720800021</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0348102086488772</v>
+        <v>0.08375272098327809</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03194874390282004</v>
+        <v>0.01242686869843953</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0406034514502866</v>
+        <v>0.01854466651187766</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01526699234206926</v>
+        <v>0.05021055437648073</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09132563505913453</v>
+        <v>0.07134350808992172</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02564875756910801</v>
+        <v>0.006764215952542012</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02052338593138144</v>
+        <v>0.04705467278756927</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01452331776643849</v>
+        <v>0.08566818784554303</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0416049936747686</v>
+        <v>0.02417114972785576</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.08082933009122491</v>
+        <v>0.02246581659447124</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.07627707150350116</v>
+        <v>0.09095160268739871</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06036027884679514</v>
+        <v>0.04954777663065374</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04115238075865552</v>
+        <v>0.065762899552701</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2412399255272804</v>
+        <v>0.2245358155411686</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06086479016474963</v>
+        <v>0.02138746391587234</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03912832456392367</v>
+        <v>0.05548033378327922</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03136359225222649</v>
+        <v>0.03388371841305656</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04517908886475075</v>
+        <v>0.04817303125588362</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01910348184338229</v>
+        <v>0.0004750435779717464</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06168400430399058</v>
+        <v>0.07893054341108313</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07608642173835879</v>
+        <v>0.03693841846365086</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06637671996966651</v>
+        <v>0.07980546021759256</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05242157515261845</v>
+        <v>0.08791266910626439</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01889486042427479</v>
+        <v>0.04048233687020426</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0554588807397217</v>
+        <v>0.04284271083331521</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001229827758089141</v>
+        <v>0.006648563529567632</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02920141775528008</v>
+        <v>0.0192731673254325</v>
       </c>
       <c r="S21" t="n">
-        <v>0.07204101889687126</v>
+        <v>0.06520500156724199</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07844298964536175</v>
+        <v>0.07666896774809702</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04514442884002336</v>
+        <v>0.01136409644961364</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07315633888984732</v>
+        <v>0.07234218450162962</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04166907051605388</v>
+        <v>0.05399940392736984</v>
       </c>
       <c r="X21" t="n">
-        <v>0.06551534259357691</v>
+        <v>0.04506923739588402</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.001738500929883427</v>
+        <v>0.004728003484018517</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0508819577619444</v>
+        <v>0.04280867461386977</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.013376575201739</v>
+        <v>0.05512795648962038</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.001040791193665908</v>
+        <v>0.02045301311948103</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08526401494366023</v>
+        <v>0.06723075276597795</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2132411517410725</v>
+        <v>0.2202571634401134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01961474888518393</v>
+        <v>0.03541360089112441</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05180502275197374</v>
+        <v>0.0719888979058057</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02793343508869718</v>
+        <v>0.04191634850610615</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0103193333402861</v>
+        <v>0.05701081772535368</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03675279510262662</v>
+        <v>0.0751334571994685</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08197558834710658</v>
+        <v>0.08369506705951317</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07366061216306899</v>
+        <v>0.02317267952191824</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07617023130948551</v>
+        <v>0.07976278754787124</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08863487493985193</v>
+        <v>0.06447187820903426</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0480884325464294</v>
+        <v>0.002852832801820678</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0558170731851628</v>
+        <v>0.08347114770392075</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0001023753768814162</v>
+        <v>0.05017763896954382</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06172699678327608</v>
+        <v>0.01019732453130447</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06481100225639723</v>
+        <v>0.007332746894511207</v>
       </c>
       <c r="T22" t="n">
-        <v>3.724240621960351e-05</v>
+        <v>0.002824236737311149</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04945987059556029</v>
+        <v>0.031070822742485</v>
       </c>
       <c r="V22" t="n">
-        <v>0.027948996881295</v>
+        <v>0.02911854677317734</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07563654223849833</v>
+        <v>0.05350267850547883</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05486178029806352</v>
+        <v>0.07396211145846977</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.04298346755492217</v>
+        <v>0.04264281488300233</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02908702994854917</v>
+        <v>0.03605789323871957</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.00207909010258221</v>
+        <v>0.001885994891386788</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02049345789788228</v>
+        <v>0.04233767530267304</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06602384018274093</v>
+        <v>0.08742614434894451</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.01981477007303</v>
+        <v>1.353827641954237</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07614130445106239</v>
+        <v>0.07427790581393134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002595458559376452</v>
+        <v>0.00832858050825459</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001917738237443343</v>
+        <v>0.08506771817130027</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03794560259907291</v>
+        <v>0.02295631650644663</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003076701994003069</v>
+        <v>0.02694527002973865</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08322184746886767</v>
+        <v>0.08576765400823033</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003215971136255866</v>
+        <v>0.0222265250727896</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02243896094771722</v>
+        <v>0.04804899145315734</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03347428732056413</v>
+        <v>0.006281479299908307</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003110375300761332</v>
+        <v>0.0945429014102632</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0257325082023644</v>
+        <v>0.05402282310607346</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07981429160527646</v>
+        <v>0.05800538822438134</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02657637660330294</v>
+        <v>0.01363185322116904</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01323104371628187</v>
+        <v>0.01139720478757525</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09409934524944791</v>
+        <v>0.1043675658854728</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1058008704847479</v>
+        <v>0.0479335384065538</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03099182816024253</v>
+        <v>0.04527629082334985</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0168565103842434</v>
+        <v>0.07635958575568892</v>
       </c>
       <c r="X23" t="n">
-        <v>0.08920493626664257</v>
+        <v>0.0545268568845914</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.08891779217755187</v>
+        <v>0.0003365477401488727</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02399408150899363</v>
+        <v>0.01192240366962259</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.06812727547233992</v>
+        <v>0.02794118986338722</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.07240926617607045</v>
+        <v>0.01983540935796528</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1014958325285188</v>
+        <v>0.08035673685045888</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1950593915856238</v>
+        <v>0.2072876418789744</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01066919118635907</v>
+        <v>0.008676781715433958</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01371345290532305</v>
+        <v>0.002437210292949951</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05392657180162012</v>
+        <v>0.03011687775965079</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0229333475491771</v>
+        <v>0.06322837597492183</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06477172470970893</v>
+        <v>0.081062262810517</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04765752242270317</v>
+        <v>0.001614595689496743</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08063497459739333</v>
+        <v>0.001497245997386583</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04296867115391367</v>
+        <v>0.04016009685206272</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01826124640688824</v>
+        <v>0.06747271771867379</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001302935724815325</v>
+        <v>0.001416910914278025</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08690272617930865</v>
+        <v>0.06750867788680831</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007280449391881243</v>
+        <v>0.08405788895908622</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09195855544902719</v>
+        <v>0.05222277278296098</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04798940750675984</v>
+        <v>0.02068459579489127</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05673489689314495</v>
+        <v>0.004455688537338863</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05316492165177769</v>
+        <v>0.07499106572303831</v>
       </c>
       <c r="V24" t="n">
-        <v>0.00597894111467832</v>
+        <v>0.02763526886364237</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06020385132540001</v>
+        <v>0.03679229632372727</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02151730316487512</v>
+        <v>0.08664974286546871</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03287533419193153</v>
+        <v>0.06887309021637046</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01811083679264411</v>
+        <v>0.08372536577478579</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.07426260737768452</v>
+        <v>0.02419780335717008</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.08618053050298492</v>
+        <v>0.07052266718933992</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.2466159566609749</v>
+        <v>-0.1815593367286216</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5847959385968093</v>
+        <v>1.66768674221311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006799210609504066</v>
+        <v>0.0103844985290412</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06802537229786228</v>
+        <v>0.05024220641289068</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06409357311172102</v>
+        <v>0.04886901638667907</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02743516369670916</v>
+        <v>0.0235196311619844</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08785015774346176</v>
+        <v>0.01674872943849859</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002019188585827213</v>
+        <v>0.02116555693315977</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07287334307501236</v>
+        <v>0.05167665841214216</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01063609957776093</v>
+        <v>0.08558555639620073</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03386936997062728</v>
+        <v>0.01305137014381119</v>
       </c>
       <c r="O25" t="n">
-        <v>0.101092788428461</v>
+        <v>0.1241503342805478</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05797728030063439</v>
+        <v>0.005036453563263141</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02097584837310702</v>
+        <v>0.1188325412485228</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06056928296443773</v>
+        <v>0.01790493109045261</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06459115148020149</v>
+        <v>0.003327446959029982</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01781844740887701</v>
+        <v>0.07061079902365766</v>
       </c>
       <c r="U25" t="n">
-        <v>0.006051831790588528</v>
+        <v>0.06761886322073664</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01712717008696995</v>
+        <v>0.00587396537008524</v>
       </c>
       <c r="W25" t="n">
-        <v>0.005663349468826327</v>
+        <v>0.0153591204504848</v>
       </c>
       <c r="X25" t="n">
-        <v>0.04934431294052767</v>
+        <v>0.003354199670373958</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02729148744276112</v>
+        <v>0.05495461693107218</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.06636026778438785</v>
+        <v>0.04056423732473925</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.07321316718745675</v>
+        <v>0.1102858861331549</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05832213567427714</v>
+        <v>0.04088338091947114</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2651334617833642</v>
+        <v>-0.22599331416355</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1141635213726958</v>
+        <v>0.1151031852980197</v>
       </c>
       <c r="F26" t="n">
-        <v>0.009281044831337021</v>
+        <v>0.008739969612291124</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08010705448155349</v>
+        <v>0.09421206672242541</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02859997783395522</v>
+        <v>0.03038131252738667</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02838026004731333</v>
+        <v>0.07176905618917072</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03720176248428655</v>
+        <v>0.003661586285115816</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04456548856885037</v>
+        <v>0.00257914367003404</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001334622007543106</v>
+        <v>0.0350351242177442</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05413259395850308</v>
+        <v>0.04930914799865905</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001480455207631558</v>
+        <v>0.006322877286663277</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04866933802119568</v>
+        <v>0.002972072469454247</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08001583343608772</v>
+        <v>0.06929416092596044</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04579084163231111</v>
+        <v>0.04304967559197635</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07984049525490536</v>
+        <v>0.0197352135936807</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01937066172001049</v>
+        <v>0.06851476031269813</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006053587864028015</v>
+        <v>0.02544655136581418</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07711188985320327</v>
+        <v>0.09705612098075274</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0249531036735758</v>
+        <v>0.006009397291648012</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06199330179556198</v>
+        <v>0.05957133737830403</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01507359273076567</v>
+        <v>0.0811562371976267</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07219628327977158</v>
+        <v>0.09456396270236223</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.078807330359339</v>
+        <v>0.05469699629253395</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.05269644078694308</v>
+        <v>0.01403203605263948</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05234404017132756</v>
+        <v>0.0618911933350584</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1678981730777884</v>
+        <v>0.1809830026419857</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1625421200295948</v>
+        <v>0.1681448032084594</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0542458016996974</v>
+        <v>0.06998076788273196</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03795861292334297</v>
+        <v>0.06008401385175764</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02748726698546974</v>
+        <v>0.04584056456893364</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006483282686727471</v>
+        <v>0.05588333446871004</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03559852742789369</v>
+        <v>0.07786686107831116</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05583503165223602</v>
+        <v>0.03414856815094885</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02423240022033964</v>
+        <v>0.001654792271172934</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1196588521483345</v>
+        <v>0.08574763622979813</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07075354857444971</v>
+        <v>0.07470291128147528</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02464886886425678</v>
+        <v>0.0720230742995359</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03071587012978833</v>
+        <v>0.02711193317747482</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1175754280199101</v>
+        <v>0.0659644777829002</v>
       </c>
       <c r="R27" t="n">
-        <v>0.001964156764587773</v>
+        <v>0.008810406621423662</v>
       </c>
       <c r="S27" t="n">
-        <v>0.00579339400949451</v>
+        <v>0.00622887401369787</v>
       </c>
       <c r="T27" t="n">
-        <v>0.005550212344307123</v>
+        <v>0.001131364694233038</v>
       </c>
       <c r="U27" t="n">
-        <v>0.101129988475208</v>
+        <v>0.04895586424877201</v>
       </c>
       <c r="V27" t="n">
-        <v>0.009602426491952965</v>
+        <v>0.07221511695439008</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1103864207720602</v>
+        <v>0.00393665519640873</v>
       </c>
       <c r="X27" t="n">
-        <v>0.009026534151462635</v>
+        <v>0.09035628315523708</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1045474343798481</v>
+        <v>0.02581001218799996</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01707002255880276</v>
+        <v>0.001069129226580903</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0283876951900137</v>
+        <v>0.02070175055064629</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.001348223529815768</v>
+        <v>0.04977560810686004</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1525105849795829</v>
+        <v>0.1809405298450141</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1802423540154537</v>
+        <v>0.1834078824235134</v>
       </c>
       <c r="F28" t="n">
-        <v>0.008458794477783841</v>
+        <v>0.003061732619985682</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07989274544230189</v>
+        <v>0.07298015450974481</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008788896941187223</v>
+        <v>0.03150064858327142</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0607367866036267</v>
+        <v>0.07896878875853737</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009256474893667675</v>
+        <v>0.009222915476154741</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03626132522756663</v>
+        <v>0.04462985641584419</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0110236401748641</v>
+        <v>0.0146844250916545</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07572229949672403</v>
+        <v>0.04983322929517171</v>
       </c>
       <c r="N28" t="n">
-        <v>0.08105011240197181</v>
+        <v>0.07705039291578067</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08031621455042191</v>
+        <v>0.07557399928193308</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07562104301812239</v>
+        <v>0.07586891466422442</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.002839490290397347</v>
+        <v>0.07922959501534244</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07483909943085794</v>
+        <v>0.07069176592440736</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0002826544902719549</v>
+        <v>0.04308153490543937</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05275183925110112</v>
+        <v>0.02134798827832268</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0216161676055691</v>
+        <v>0.02451899982836931</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0565088276607108</v>
+        <v>0.0390703014205044</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06750148603202014</v>
+        <v>0.06191525352241593</v>
       </c>
       <c r="X28" t="n">
-        <v>0.002493048428370249</v>
+        <v>0.00432420975593812</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0632216101374114</v>
+        <v>0.0753595539604843</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05304008988891149</v>
+        <v>0.03376578689430017</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0002643358936942343</v>
+        <v>0.007755011291226452</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.07751301766244603</v>
+        <v>0.005564941590946675</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03625025585004506</v>
+        <v>0.02184480892098121</v>
       </c>
     </row>
     <row r="29">
@@ -3160,82 +3160,82 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.4743785910805463</v>
+        <v>0.3617930378799524</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06152636677106903</v>
+        <v>0.05422362491302546</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03755653246728221</v>
+        <v>0.03402024183362098</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05913156544508816</v>
+        <v>0.08098513651980768</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004456836206955158</v>
+        <v>0.04847584315101439</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01505889699512419</v>
+        <v>0.001353973792086932</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0721538979625987</v>
+        <v>0.05955952009040229</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005691155921157974</v>
+        <v>0.0114162832503401</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04367169695487053</v>
+        <v>0.09585918499218045</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08589577901572824</v>
+        <v>0.06652667723619342</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1024104313972442</v>
+        <v>0.05526181987644001</v>
       </c>
       <c r="P29" t="n">
-        <v>0.002613195555998222</v>
+        <v>0.004465739051036064</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03065519959734922</v>
+        <v>0.09700471617281479</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02843093975157411</v>
+        <v>0.04690596236137073</v>
       </c>
       <c r="S29" t="n">
-        <v>0.00632562800032148</v>
+        <v>0.02809610958438654</v>
       </c>
       <c r="T29" t="n">
-        <v>0.002304919228967543</v>
+        <v>0.03158286297549063</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1139037073304475</v>
+        <v>0.00656223616519866</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03139715110900154</v>
+        <v>0.01926132716402601</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01359764007672388</v>
+        <v>0.03711559510679888</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0577487679918675</v>
+        <v>0.0459867697497416</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1120031178226615</v>
+        <v>0.06731955173894938</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.08675478536550386</v>
+        <v>0.05810414437673338</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01732010811108165</v>
+        <v>0.002220816351696315</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.009391680921383469</v>
+        <v>0.04769186354664531</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.05470951859184871</v>
+        <v>-0.0001667807417942164</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>